--- a/bank statement generator/bank_statements/statement_31.xlsx
+++ b/bank statement generator/bank_statements/statement_31.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 05.04.2025</t>
+          <t>KONTOSTAND AM 26.12.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,112 +759,80 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>08.04.</t>
+          <t>27.12.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>09.04.</t>
+          <t>28.12.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Wertingen</t>
+          <t>KARTENZ./27.12 EDEKA RO</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>21,82-</t>
+          <t>79,35-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>10.04.</t>
+          <t>28.12.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>11.04.</t>
+          <t>29.12.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./10.04 LIDL RO</t>
+          <t>BEITRAG Allianz SE K-67236422</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>132,11-</t>
+          <t>52,91-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>12.04.</t>
+          <t>29.12.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>13.04.</t>
+          <t>30.12.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 63917362</t>
+          <t>AMAZON.DE MKTPLC EU JCCDXP</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>39,19-</t>
+          <t>86,83-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>13.04.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>14.04.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>KARTENZ./13.04 LIDL RO</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>92,88-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>17.04.</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>18.04.</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>EBAY MKTPLC EU GAYHLW</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>222,84-</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -877,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 20.04.2025</t>
+          <t>KONTOSTAND AM 02.01.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>508,84-</t>
+          <t>219,09-</t>
         </is>
       </c>
     </row>
@@ -890,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 26.04.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 07.01.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
